--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="30" windowWidth="18315" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="2445" yWindow="30" windowWidth="18315" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="start_170221" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>진행률</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,6 +275,10 @@
   </si>
   <si>
     <t>최대갯수 적게 설정하고 레벨업하면 추가 가능. 현질로 구매 해야하면 욕먹으려나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 다 쓰면 제거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,18 +312,12 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -354,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,9 +373,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -683,9 +678,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1063,8 +1058,12 @@
       <c r="E29" s="2">
         <v>42808</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="7"/>
+      <c r="F29" s="2">
+        <v>42810</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
@@ -1081,9 +1080,18 @@
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="2">
+        <v>42810</v>
+      </c>
+      <c r="F31" s="2">
+        <v>42810</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E32" s="2"/>
@@ -1282,7 +1290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="2445" yWindow="30" windowWidth="18315" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="start_170221" sheetId="1" r:id="rId1"/>
+    <sheet name="start_170224" sheetId="1" r:id="rId1"/>
     <sheet name="아이디어" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>진행률</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t>아이템 다 쓰면 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이스북 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오톡 로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,11 +688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -723,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2">
-        <v>42787</v>
+        <v>42790</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -814,65 +826,57 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="1"/>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2">
-        <v>42797</v>
-      </c>
-      <c r="F11" s="2">
-        <v>42797</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="2">
-        <v>42800</v>
-      </c>
-      <c r="F12" s="2">
-        <v>42800</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E14" s="2">
+        <v>42797</v>
+      </c>
+      <c r="F14" s="2">
+        <v>42797</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2">
         <v>42800</v>
@@ -883,141 +887,131 @@
       <c r="G15" s="1">
         <v>1</v>
       </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="2">
-        <v>42801</v>
-      </c>
-      <c r="F16" s="2">
-        <v>42803</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2">
+        <v>42800</v>
+      </c>
+      <c r="F18" s="2">
+        <v>42800</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2">
+        <v>42801</v>
+      </c>
+      <c r="F19" s="2">
+        <v>42803</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E21" s="2">
         <v>42802</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F21" s="2">
         <v>42802</v>
       </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E22" s="2">
         <v>42804</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F22" s="2">
         <v>42804</v>
       </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E23" s="2">
         <v>42806</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F23" s="2">
         <v>42807</v>
       </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E25" s="2">
         <v>42807</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F25" s="2">
         <v>42807</v>
       </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
         <v>31</v>
-      </c>
-      <c r="E23" s="2">
-        <v>42808</v>
-      </c>
-      <c r="F23" s="2">
-        <v>42808</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="2">
-        <v>42808</v>
-      </c>
-      <c r="F24" s="2">
-        <v>42808</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="2">
-        <v>42808</v>
-      </c>
-      <c r="F25" s="2">
-        <v>42808</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
-        <v>34</v>
       </c>
       <c r="E26" s="2">
         <v>42808</v>
@@ -1029,84 +1023,111 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E27" s="2">
-        <v>42809</v>
+        <v>42808</v>
       </c>
       <c r="F27" s="2">
-        <v>42809</v>
+        <v>42808</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="2">
+        <v>42808</v>
+      </c>
+      <c r="F28" s="2">
+        <v>42808</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2">
         <v>42808</v>
       </c>
       <c r="F29" s="2">
+        <v>42808</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="2">
+        <v>42809</v>
+      </c>
+      <c r="F30" s="2">
+        <v>42809</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="2">
+        <v>42808</v>
+      </c>
+      <c r="F32" s="2">
         <v>42810</v>
       </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E33" s="2">
         <v>42808</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F33" s="2">
         <v>42808</v>
       </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E34" s="2">
         <v>42810</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F34" s="2">
         <v>42810</v>
       </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E35" s="2"/>
@@ -1114,26 +1135,29 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E40" s="2"/>
@@ -1175,104 +1199,116 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="3" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="5" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H58" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D67" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C70" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D80" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C85" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
         <v>55</v>
       </c>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="start_170224" sheetId="1" r:id="rId1"/>
     <sheet name="아이디어" sheetId="2" r:id="rId2"/>
+    <sheet name="UI" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>진행률</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +292,38 @@
   </si>
   <si>
     <t>카카오톡 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 방향을 MMORPG로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이대로라면 수명이 매우 짧음 컨텐츠도 매우 부족할 예정이라 무차별리그(모든 유저 다 참여 가능), 티어별 리그 모드를 만듦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드와 진주 화폐 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI만들어야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일을 우선 만들고 그담에 PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길드전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 팀이면 아이템 줄 수 있음(그러면 보급책과 딜러 탱커가 자동으로 나뉘겠지), 세세한 포인트 계산 및 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,6 +432,163 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>475359</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="676275"/>
+          <a:ext cx="7133334" cy="857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523210</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3143250"/>
+          <a:ext cx="5323810" cy="3914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>132477</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7753350"/>
+          <a:ext cx="6990477" cy="3914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>341829</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>161329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="12573000"/>
+          <a:ext cx="8571429" cy="4771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -691,7 +881,7 @@
   <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1324,11 +1514,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1383,8 +1573,64 @@
         <v>66</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>42817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="30" windowWidth="18315" windowHeight="12345"/>
+    <workbookView xWindow="2445" yWindow="30" windowWidth="18315" windowHeight="12345" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="start_170224" sheetId="1" r:id="rId1"/>
     <sheet name="아이디어" sheetId="2" r:id="rId2"/>
     <sheet name="UI" sheetId="3" r:id="rId3"/>
+    <sheet name="CCO 이미지" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
   <si>
     <t>진행률</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +326,48 @@
   <si>
     <t>상단</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0 이미지 라이센스 공유사이트</t>
+  </si>
+  <si>
+    <t>01. http://publicdomainarchive.com/</t>
+  </si>
+  <si>
+    <t>02. http://wefunction.com/category/free-photos/</t>
+  </si>
+  <si>
+    <t>03. http://unsplash.com/</t>
+  </si>
+  <si>
+    <t>04. http://littlevisuals.co/page/2</t>
+  </si>
+  <si>
+    <t>05. http://nos.twnsnd.co/</t>
+  </si>
+  <si>
+    <t>06. http://www.pdpics.com/</t>
+  </si>
+  <si>
+    <t>07. http://littlevisuals.co/</t>
+  </si>
+  <si>
+    <t>08. http://www.gratisography.com/</t>
+  </si>
+  <si>
+    <t>09. http://viintage.com/</t>
+  </si>
+  <si>
+    <t>10. http://www.1millionfreepictures.com/</t>
+  </si>
+  <si>
+    <t>11. http://splitshire.com/</t>
+  </si>
+  <si>
+    <t>12. http://pixabay.com/</t>
+  </si>
+  <si>
+    <t>13. http://www.publicdomainpictures.net/</t>
   </si>
 </sst>
 </file>
@@ -334,7 +377,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +398,21 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Gulim"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -389,15 +447,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -419,10 +480,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -880,12 +948,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" customWidth="1"/>
@@ -895,7 +963,7 @@
     <col min="8" max="8" width="88.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="30.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -920,7 +988,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -929,13 +997,13 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -943,7 +1011,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="D5" t="s">
         <v>5</v>
       </c>
@@ -957,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="D6" t="s">
         <v>6</v>
       </c>
@@ -971,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -985,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="D8" t="s">
         <v>18</v>
       </c>
@@ -997,7 +1065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -1014,7 +1082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="D10" t="s">
         <v>68</v>
       </c>
@@ -1022,7 +1090,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="D11" t="s">
         <v>69</v>
       </c>
@@ -1030,7 +1098,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="D12" t="s">
         <v>70</v>
       </c>
@@ -1038,7 +1106,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="D13" t="s">
         <v>18</v>
       </c>
@@ -1050,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="D15" t="s">
         <v>17</v>
       </c>
@@ -1081,14 +1149,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -1096,7 +1164,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8">
       <c r="D18" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8">
       <c r="D19" t="s">
         <v>23</v>
       </c>
@@ -1127,7 +1195,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8">
       <c r="C20" t="s">
         <v>21</v>
       </c>
@@ -1135,7 +1203,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8">
       <c r="D21" t="s">
         <v>24</v>
       </c>
@@ -1149,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8">
       <c r="D22" t="s">
         <v>28</v>
       </c>
@@ -1163,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8">
       <c r="D23" t="s">
         <v>29</v>
       </c>
@@ -1177,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8">
       <c r="C24" t="s">
         <v>22</v>
       </c>
@@ -1185,7 +1253,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:8">
       <c r="D25" t="s">
         <v>30</v>
       </c>
@@ -1199,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:8">
       <c r="D26" t="s">
         <v>31</v>
       </c>
@@ -1213,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8">
       <c r="D27" t="s">
         <v>32</v>
       </c>
@@ -1227,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8">
       <c r="D28" t="s">
         <v>33</v>
       </c>
@@ -1241,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:8">
       <c r="D29" t="s">
         <v>34</v>
       </c>
@@ -1255,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:8">
       <c r="D30" t="s">
         <v>36</v>
       </c>
@@ -1269,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:8">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -1277,7 +1345,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:8">
       <c r="D32" t="s">
         <v>35</v>
       </c>
@@ -1291,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="D33" t="s">
         <v>37</v>
       </c>
@@ -1305,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="D34" t="s">
         <v>67</v>
       </c>
@@ -1319,27 +1387,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
         <v>16</v>
       </c>
@@ -1349,64 +1417,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="B58" s="3" t="s">
         <v>40</v>
       </c>
@@ -1418,7 +1486,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
         <v>22</v>
@@ -1427,77 +1495,77 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="B68" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="C69" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="D70" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="D71" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="B72" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="C73" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="D74" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="B81" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="C82" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="D83" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="B87" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="C88" t="s">
         <v>55</v>
       </c>
@@ -1521,13 +1589,13 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="28.375" customWidth="1"/>
     <col min="2" max="2" width="69.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="2">
         <v>42807</v>
       </c>
@@ -1538,7 +1606,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1546,7 +1614,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1557,7 +1625,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1565,7 +1633,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1573,12 +1641,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>42817</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1586,12 +1654,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -1599,7 +1667,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -1621,9 +1689,9 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1633,4 +1701,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://publicdomainarchive.com/"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://lm.facebook.com/l.php?u=http%3A%2F%2Fwefunction.com%2Fcategory%2Ffree-photos%2F&amp;h=ATMNI4I5q3bE0wD9B5IuGDgDnmAU1ioJZftjzKc79G-NTgcwyhfuvknVWGqZ52XQ2R6JuxkBcjQk66aNa3LbvkaPESpmSrBE3nq01NPAzQF6-tqN4Ng9Gr92aKnyVGsC64sk6vg&amp;enc=AZM_urVZTjWlwi2Kr1x2N4kA3yxyRlHU9rDnN_2cIM5JEF_DDD5F-7zbwS44SVb9hzGpiSOwiLif6vG8VVhOZEPrPP8ZIKOKgUnsVfgkoI7JJTNmcZgNnOuU2pyavPVT3a7Mz25eGQ2idsosV6bJDd3WoW5KYyRJcFqfRjVtIBeh5Vu8_pl0Y3PvAaZpvnpTRC0&amp;s=1"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://lm.facebook.com/l.php?u=http%3A%2F%2Funsplash.com%2F&amp;h=ATP1iSvG6bSFaq1Z0A0on3bWui-DcOJrccZwGThbbaxHfRbB_3caDE1gma6SzQNj9NvOFws31ojh1cwoM-Mxhr4rJhsjnNt62ASOmnEXxZ7zlJc1NprDIQflLX0GZikPXvFiPJA&amp;enc=AZMrOq6EM-l0D4YHVZ_oRDPAw07TYHZbhTLkgyeptnXsk1Bvjh47rvlTTgxc9T_kPssywd9YI5fuK1v4NiLIaxj4YcsnoC7d2ocnCpY7dwbkBHJZ_TZbW8XU45n8hqAOC12RM7AgYHHXSLU2Qa40WHOEw9oPiA8rrL492ZMriRgSAU_6g5DKy8rRwrwYTIMi4Qw&amp;s=1"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://lm.facebook.com/l.php?u=http%3A%2F%2Flittlevisuals.co%2Fpage%2F2&amp;h=ATNOi2PNNKjKq3CPWCoyh5kyrXEFl4wfSuN3YBCyOsWVJKWmoxjhGnanT2Ijtoh7WkOdNvb2Ol3sSn_QKsSEq7hLoB3_8JaofctlUghvXS2aqxifd1nC3luoxtZMpkLXjNfcY8s&amp;enc=AZM1UNPMs9kLat6fUYR7OG43bbPOI60o_Aa6snWpPrHNGVqMkiKGQb1hJH3qXdDFP7lA371Pjz60Avwu6baOwR633LEnh0oKAGXLjkfl1vegoiG_SnJsi5qKoH8OraXaxsWDdMKIfiYNWGYPQhmX530AGshYX3dvhr_3i4GqzwQQIcSaeUIEcpLwDmvRbQ5kMGk&amp;s=1"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://lm.facebook.com/l.php?u=http%3A%2F%2Fnos.twnsnd.co%2F&amp;h=ATMSnWIMvFQ5MXstQgkG0obdJfDckKCQbgO37w0eG1h6EnYuwOuLsW731KJuppuyf4fuRzh_9Pv80rMFggiYjkbKAfnIVE63jubT2aNYNIK7OyxtPmpYsKBDRFyo5JvP3C-X1og&amp;enc=AZOC7F1PTdN4uzgd91NnfHeSjJj1h8HNzQRVexbV_PEHf-zwo2YuVxGRIrcgxprJLgR1x9LvoxM0xSSwltUrU71p0U72lbKawjge1ji-dopwe7UJODW3-XFL94e5_4VYq9F9W8zu6FSJoh6cl3v9MSjc4AiFbEd-Uux4YJPaGZnsS22zQWKLGC9u6VzTTG3Eeg0&amp;s=1"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://lm.facebook.com/l.php?u=http%3A%2F%2Fwww.pdpics.com%2F&amp;h=ATNa-1Mkazdh3_4p2iExiiUghxm6wNbfh4B-REhUm-A9iKAmgA6Q7qS-y3QZJ9lt6YbUObeigZk0bilFwZiG0RqKeJ14ryFX5-FxOGxSePRuQaBe2YqElqJLPFlUhDqBzXRbsDY&amp;enc=AZMDFmnI98w3zrqbc0kbc8rS8STjJVpP4Tif2F3T4HxY7wKVHaPO1kXCo_-8ViF3hFAGVOsV4q5QKUsmLn1CTyGckGlYj6vF2oKgNtWLYNxlMwcRVfpuQGgsi7eOdO7vDIYMJAfyjsBMUi3gCcJqkiOPuIwZh61RDG9ru-_0HQeWylmU9w1hKgWgorLLpLdhMHg&amp;s=1"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://lm.facebook.com/l.php?u=http%3A%2F%2Flittlevisuals.co%2F&amp;h=ATPUpWg1TLPAI4xtkuZiNWVWdCS_M46wcc2V0l0IaukINtw68xjk3Utu1NPwVa7bybxY8x0EnS09NnC2joMW4dtgAxEKRuoM84JBJ_pOMp1QhR1jIZW1xWnnHFx18QhJfJqfapY&amp;enc=AZO0jpG4Y59ferxlnpZ4pAQ8ryjcYisRc9UllEiwB2-h6tff5c88vAq2o9OKnyhchkhCtuBAbBZ_G_TNroM6VqFKdoJPq7xj5I6e6eFQ3t2DsQjRgFxWOj9jnTM6MHYer91JfehFrtV4Qb1UmgpndjTs1709lqlskt0RcYYwYz4D3KrFSC3TWA_hoabonGZ42gk&amp;s=1"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://lm.facebook.com/l.php?u=http%3A%2F%2Fwww.gratisography.com%2F&amp;h=ATPPE6nNFoeBOp1R4ddYVsAwXQBAOkMjWet5-mD9j_YOEep_hdPQIFnUgLmMLlv5ZRf9Wvde3BXVX9piAtXtEaQlDVuA4DLh9Rt-pHgJQyug0z3gQ589uiHHhYJNja3TKbmEyeE&amp;enc=AZMxhaSe_2XXgOXXdRIjp8-BhJ5VlnEZruKSnVW8eIh3tmgcoteJxE2VmhpCswLkWzHw6zgOQUUCQ8XUVzHue6UJm1Y0rxk8KxAv1fNDwfbAnTA79Q4a3SpVdrkWle-_ElNACZtVkLF_G0YU_nBL1Hfn-2OVKt7hxeIIdUrp1OquHdmCtdAbwpdN1mG_MYTA6_Q&amp;s=1"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://lm.facebook.com/l.php?u=http%3A%2F%2Fviintage.com%2F&amp;h=ATMRr530zcZggKAPq2v55MirV7ilJPAj-1p832t1JfOpocRbACX_h50TzN6BtiPNAsDlgG9AQ5toUhpGHdvw4XDnXL3QyETnBGqK1-E874Rik3tkJlgCcEI9PiZfTBCC_XnyyBg&amp;enc=AZMM1F4NuCpemzkMNm7fT7mQmNVym02_BREviFXRtta-53vXebPiUTZKC66LwIv4RIiGZjFuLaQUL2TH1-vL4Zrevmt8L5abiHgT40-VaIasBjSi2CQa50MSZNZk2wfxtTKFxsR4mr5UStsOeA7gwGH4HdEJoln4LpgqIfTkAkB6du4-cRR7OFOLfGhVP6TbT2s&amp;s=1"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://lm.facebook.com/l.php?u=http%3A%2F%2Fwww.1millionfreepictures.com%2F&amp;h=ATOgU9i7ts0kTDrNKyVjfJdtHav5AjTEF8GVShuoGwfe1Yy7Oz-etHIztVB_lQ1SGrSDM6RnuoEkymeN-AMwqFdjIXjlPXp4AanB5_jxCzK-Ez5EgR9Hzginqlwj4AFkmI_NQmw&amp;enc=AZODJPnqUOQyEo-JS5VzWT2xNy7YzC3tYXOH0hVSomXzWzKdTbfoAZFE6gYUIvgknh-NBkehG41OIBrX3VYDzH7PiUauu_GCNUrIsFYn7boXDtSNErU_8fvcfjLyGAnnHwzHQIEMu-G_lhVvB6CuYlKmHg_JZb1HmCYCktK-RZ6CizYVk4AkeHGf8mmMdYgnDfo&amp;s=1"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://lm.facebook.com/l.php?u=http%3A%2F%2Fsplitshire.com%2F&amp;h=ATMLAhSTIJQiGW27RFXFgz7WQHXYcJgpEEIUFzZcNwUPRmb1vuy-quk-IJpex0yV-g21arn6nH95Kmm8DqnReMEKqCLgyc-Fv3hx9mnfvQPs-sYABAQD7zUcYzrIEBosYEX6AXQ&amp;enc=AZMnwHignPLaEq330fMABNkn6k-bBvtTAyGGz7MzoMl6vHGR0CoJ9XKWLg5lphomH7sL-Tp2pP5pq8mYxo6pXY0NdDHmJwFql9D3_z95OnxyWtG7fRBj8KbCulSB38Swl4nI0cw1YC0pJ-Oh0pDsDRuFqXmiTjAgLuaRjmKhiVsLVUD_8ADQQLvKfqIhmMvykk4&amp;s=1"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://lm.facebook.com/l.php?u=http%3A%2F%2Fpixabay.com%2F&amp;h=ATMv331-osYS_npfirqQ1C0sK8yyiutdhLAOOZgH50XlGtVS_szMXc1uwefOK5CnUig1lwB6000JthJVCB0Flq4g50PJZJERR4qy1nYSgiZO2u0MnFF3WRWw13OoEQd8QozN0Zs&amp;enc=AZNv3KUdejTWLAo8r668IMxmXFkpauNRx9Pv5GbnkQvdI67a8d1iBATStciLbhTlfGei45ZnXLTwtKb-K-xLzAtyyhLtISKx__fs9UY6n-gMhANbVoCaNxHpdDgXiQiJioxnZwr4vZK3d12qUelhWQ_Jo9aXaKnWluqQ_NXiw8l0EOd86UXODoyZfOIVHcJosw0&amp;s=1"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://lm.facebook.com/l.php?u=http%3A%2F%2Fwww.publicdomainpictures.net%2F&amp;h=ATMzLMEPqu-qQeZxluItctWqyWidkVkbQT5GeQuKVtDHTlrmGmIf2hs3noWndPAkpbDOBkpLz6sBFkWvSmJy4NkS0xA64RgicK_VShJ9R9X6Yt90IRUg0XPFVx6lsmRPf3DqAFE&amp;enc=AZMIu8odK3itloEMVtnZfoVIoIzxrb_vjaK9q8ZeJ3hDD_9UTLpRFvNGdDb6eLShUD3ynMLRZMHI22WDWvaPPc0GD_41P8AhheN_xjuK7HCL4J8ADAqfJHrQZ86AOSxo9FpJG-WtZnicgGYYtIcrwrpwuT9L1fSCY8Ya0kgfQLcjK-F9659LLsJsaykBmBsQsBU&amp;s=1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId14"/>
+</worksheet>
 </file>
--- a/plan.xlsx
+++ b/plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
   <si>
     <t>진행률</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,43 +331,49 @@
     <t>CC0 이미지 라이센스 공유사이트</t>
   </si>
   <si>
+    <t>03. http://unsplash.com/</t>
+  </si>
+  <si>
+    <t>04. http://littlevisuals.co/page/2</t>
+  </si>
+  <si>
+    <t>05. http://nos.twnsnd.co/</t>
+  </si>
+  <si>
+    <t>06. http://www.pdpics.com/</t>
+  </si>
+  <si>
+    <t>07. http://littlevisuals.co/</t>
+  </si>
+  <si>
+    <t>08. http://www.gratisography.com/</t>
+  </si>
+  <si>
+    <t>09. http://viintage.com/</t>
+  </si>
+  <si>
+    <t>10. http://www.1millionfreepictures.com/</t>
+  </si>
+  <si>
+    <t>11. http://splitshire.com/</t>
+  </si>
+  <si>
+    <t>12. http://pixabay.com/</t>
+  </si>
+  <si>
+    <t>13. http://www.publicdomainpictures.net/</t>
+  </si>
+  <si>
     <t>01. http://publicdomainarchive.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>02. http://wefunction.com/category/free-photos/</t>
-  </si>
-  <si>
-    <t>03. http://unsplash.com/</t>
-  </si>
-  <si>
-    <t>04. http://littlevisuals.co/page/2</t>
-  </si>
-  <si>
-    <t>05. http://nos.twnsnd.co/</t>
-  </si>
-  <si>
-    <t>06. http://www.pdpics.com/</t>
-  </si>
-  <si>
-    <t>07. http://littlevisuals.co/</t>
-  </si>
-  <si>
-    <t>08. http://www.gratisography.com/</t>
-  </si>
-  <si>
-    <t>09. http://viintage.com/</t>
-  </si>
-  <si>
-    <t>10. http://www.1millionfreepictures.com/</t>
-  </si>
-  <si>
-    <t>11. http://splitshire.com/</t>
-  </si>
-  <si>
-    <t>12. http://pixabay.com/</t>
-  </si>
-  <si>
-    <t>13. http://www.publicdomainpictures.net/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기가 좀 쓸모 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -477,14 +483,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -967,11 +973,11 @@
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
@@ -1685,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1705,82 +1711,85 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="8" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="8" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="8" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="8" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="8" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="8" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="8" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="8" t="s">
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
